--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_07-02_end.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_07-02_end.xlsx
@@ -1692,7 +1692,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hoshiguma"]  “Can’t stand this place?”
+    <t xml:space="preserve">[name="Hoshiguma"]  'Can’t stand this place?'
 </t>
   </si>
   <si>

--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_07-02_end.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_07-02_end.xlsx
@@ -1604,31 +1604,31 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Uptown Lungmen 7:20 PM
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  *Pant* *pant*...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Hoshiguma"]  ...You’re pretty serious about this.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Hoshiguma"]  Real unexpected. Never would’ve thought... that you’d be able to make me bleed.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  We... have never... been able to walk away... from our past.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  Hoshiguma, you’ve always been a part of this city. But... not me. I’ve always been running.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  I don’t think I’ll ever be able to stand this place.
+    <t xml:space="preserve">Uptown Lungmen 7:20 P.M.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  *Pant* *pant*...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  ...You're pretty serious about this.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  Real unexpected. Never would've thought... that you'd be able to make me bleed.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  We... have never... been able to walk away... from our past.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  Hoshiguma, you've always been a part of this city. But... not me. I've always been running.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  I don't think I'll ever be able to stand this place.
 </t>
   </si>
   <si>
@@ -1636,27 +1636,27 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hoshiguma"]  I can’t stop you. Go.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  ...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  Sorry, Hoshiguma.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  After I’m gone, please go to the slums for me. The people there are panicked and confused. Someone from the L.G.D. has to protect them.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  If some Infected kids give you a toy bear...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  Keep it. An Ursus girl named Misha taught them how to make those bears. She died, because we failed her.
+    <t xml:space="preserve">[name="Hoshiguma"]  I can't stop you. Go.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  ...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  Sorry, Hoshiguma.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  After I'm gone, please go to the slums for me. The people there are panicked and confused. Someone from the L.G.D. has to protect them.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  If some Infected kids give you a toy bear...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  Keep it. An Ursus girl named Misha taught them how to make those bears. She died, because we failed her.
 </t>
   </si>
   <si>
@@ -1664,35 +1664,35 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch’en"]  I’m sorry. I owe you one.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Hoshiguma"]  I don’t need your apologies. Honestly, you’re no good at them.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  Hoshiguma...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Hoshiguma"]  ...I think we’re done here.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Hoshiguma"]  Go! And don’t come back.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  ——
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  ...Take care of yourself.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Hoshiguma"]  'Can’t stand this place?'
+    <t xml:space="preserve">[name="Ch'en"]  I'm sorry. I owe you one.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  I don't need your apologies. Honestly, you're no good at them.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  Hoshiguma...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  ...I think we're done here.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  Go! And don't come back.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  ——
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  ...Take care of yourself.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  'Can't stand this place?'
 </t>
   </si>
   <si>
@@ -1708,11 +1708,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="L.G.D. Officer"]  ...Huh? Inspector, y-you’re hurt? Who could have...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="L.G.D. Officer"]  Oh, yes, we just saw, err, Madame Ch’en——
+    <t xml:space="preserve">[name="L.G.D. Officer"]  ...Huh? Inspector, y-you're hurt? Who could have...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="L.G.D. Officer"]  Oh, yes, we just saw, err, Madame Ch'en——
 </t>
   </si>
   <si>
@@ -1724,11 +1724,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="L.G.D. Officer"]  Inspector... you’re disobeying orders too?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Hoshiguma"]  ...I wouldn’t put it that way.
+    <t xml:space="preserve">[name="L.G.D. Officer"]  Inspector... you're disobeying orders too?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  ...I wouldn't put it that way.
 </t>
   </si>
   <si>
@@ -1764,7 +1764,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Fumizuki"]  We’ve been together for years now, Wei Yenwu.
+    <t xml:space="preserve">[name="Fumizuki"]  We've been together for years now, Wei Yenwu.
 </t>
   </si>
   <si>
@@ -1772,7 +1772,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Fumizuki"]  One look in your eyes and I can tell what you’re thinking.
+    <t xml:space="preserve">[name="Fumizuki"]  One look in your eyes and I can tell what you're thinking.
 </t>
   </si>
   <si>
@@ -1780,11 +1780,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Fumizuki"]  Now, now. I’ve always been able to tell.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Fumizuki"]  I know Lungmen means the world to you. I know all that you’ve given her. I know about the dreams you have for her.
+    <t xml:space="preserve">[name="Fumizuki"]  Now, now. I've always been able to tell.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Fumizuki"]  I know Lungmen means the world to you. I know all that you've given her. I know about the dreams you have for her.
 </t>
   </si>
   <si>
@@ -1792,15 +1792,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Fumizuki"]  But this, today, this isn’t what you want, is it?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Fumizuki"]  Ah, gomen. I’m not referring to our current dilemma.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Fumizuki"]  What I mean is... this prosperity that you’ve given everything for.
+    <t xml:space="preserve">[name="Fumizuki"]  But this, today, this isn't what you want, is it?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Fumizuki"]  Ah, gomen. I'm not referring to our current dilemma.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Fumizuki"]  What I mean is... this prosperity that you've given everything for.
 </t>
   </si>
   <si>
@@ -1808,7 +1808,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Fumizuki"]  Surely you couldn’t bear to lose your niece as well.
+    <t xml:space="preserve">[name="Fumizuki"]  Surely you couldn't bear to lose your niece as well.
 </t>
   </si>
   <si>
@@ -1816,11 +1816,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Fumizuki"]  No, Wei Yenwu... That’s not what I mean.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Fumizuki"]  Won’t you regret it? If you let them both die in some foreign city?
+    <t xml:space="preserve">[name="Fumizuki"]  No, Wei Yenwu... That's not what I mean.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Fumizuki"]  Won't you regret it? If you let them both die in some foreign city?
 </t>
   </si>
   <si>
@@ -1832,19 +1832,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Wei Yenwu"]  All that I’ve done, I’ve done for the sake of our land. I never intended for Ch'en Hui-chieh to do my work for me.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Fumizuki"]  But that’s how she is!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Fumizuki"]  No. Keeping the truth from her only deepens the cut. It only makes her feel like she doesn’t belong here...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Fumizuki"]  Your expectations of her, they’re too distant, and too difficult.
+    <t xml:space="preserve">[name="Wei Yenwu"]  All that I've done, I've done for the sake of our land. I never intended for Ch'en Hui-chieh to do my work for me.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Fumizuki"]  But that's how she is!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Fumizuki"]  No. Keeping the truth from her only deepens the cut. It only makes her feel like she doesn't belong here...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Fumizuki"]  Your expectations of her, they're too distant, and too difficult.
 </t>
   </si>
   <si>
@@ -1868,11 +1868,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Fumizuki"]  All right, that’s enough rationalizing. You’re giving me a headache.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Fumizuki"]  I’ll go bring her home myself. I won’t sit back and watch her die.
+    <t xml:space="preserve">[name="Fumizuki"]  All right, that's enough rationalizing. You're giving me a headache.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Fumizuki"]  I'll go bring her home myself. I won't sit back and watch her die.
 </t>
   </si>
   <si>
@@ -1880,7 +1880,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Wei Yenwu"]  Nonsense! I won’t allow it...!
+    <t xml:space="preserve">[name="Wei Yenwu"]  Nonsense! I won't allow it...!
 </t>
   </si>
   <si>
@@ -1888,7 +1888,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Fumizuki"]  Oh? You’ll stop me?
+    <t xml:space="preserve">[name="Fumizuki"]  Oh? You'll stop me?
 </t>
   </si>
   <si>
@@ -1904,7 +1904,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  It’s been a long time since I’ve heard such angry Higashinese.
+    <t xml:space="preserve">[name="Kal'tsit"]  It's been a long time since I've heard such angry Higashinese.
 </t>
   </si>
   <si>
@@ -1940,7 +1940,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Fumizuki"]  I’ll cover it myself.
+    <t xml:space="preserve">[name="Fumizuki"]  I'll cover it myself.
 </t>
   </si>
   <si>
@@ -1948,7 +1948,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]  You’re really going to hire us like this, Miss Fumizuki?
+    <t xml:space="preserve">[name="Amiya"]  You're really going to hire us like this, Miss Fumizuki?
 </t>
   </si>
   <si>
@@ -1960,7 +1960,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Fumizuki"]  Or I might say, our opponent’s plans have gone beyond anything we might have predicted, and included all that he holds dear.
+    <t xml:space="preserve">[name="Fumizuki"]  Or I might say, our opponent's plans have gone beyond anything we might have predicted, and included all that he holds dear.
 </t>
   </si>
   <si>
@@ -1968,11 +1968,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Wei Yenwu"]  Fumizuki, that’s enough!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Fumizuki"]  Who are you to say what’s enough?!
+    <t xml:space="preserve">[name="Wei Yenwu"]  Fumizuki, that's enough!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Fumizuki"]  Who are you to say what's enough?!
 </t>
   </si>
   <si>
@@ -1980,7 +1980,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  I understand everything you’ve said here, Miss Fumizuki. And money won’t be necessary. But I need you two to hear me out.
+    <t xml:space="preserve">[name="Kal'tsit"]  I understand everything you've said here, Miss Fumizuki. And money won't be necessary. But I need you two to hear me out.
 </t>
   </si>
   <si>
@@ -1988,7 +1988,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  Maybe this isn’t the place to say it, but if I can speak freely, Lungmen needs some outside assistance.
+    <t xml:space="preserve">[name="Kal'tsit"]  Maybe this isn't the place to say it, but if I can speak freely, Lungmen needs some outside assistance.
 </t>
   </si>
   <si>
@@ -1996,7 +1996,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Fumizuki"]  By all means. I don’t let words get to me.
+    <t xml:space="preserve">[name="Fumizuki"]  By all means. I don't let words get to me.
 </t>
   </si>
   <si>
@@ -2008,7 +2008,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  But the world is a tough place. It doesn’t let up on any of us. Especially a pharmaceutical company like ours that tends to make a lot of enemies be it in business, geopolitics, or otherwise.
+    <t xml:space="preserve">[name="Kal'tsit"]  But the world is a tough place. It doesn't let up on any of us. Especially a pharmaceutical company like ours that tends to make a lot of enemies be it in business, geopolitics, or otherwise.
 </t>
   </si>
   <si>
@@ -2036,15 +2036,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Wei Yenwu"]  I hope it’s a good one.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  I’m not sure if I should be disclosing this information to you, Mr. Wei.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  You must know, with Lungmen’s strength and your talents, you could annihilate Rhodes Island with a snap of your fingers.
+    <t xml:space="preserve">[name="Wei Yenwu"]  I hope it's a good one.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  I'm not sure if I should be disclosing this information to you, Mr. Wei.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  You must know, with Lungmen's strength and your talents, you could annihilate Rhodes Island with a snap of your fingers.
 </t>
   </si>
   <si>
@@ -2060,7 +2060,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Wei Yenwu"]  Go on. Dr. Kal’tsit, Miss Amiya, rest assured I have no energy to direct at Rhodes Island anymore.
+    <t xml:space="preserve">[name="Wei Yenwu"]  Go on. Dr. Kal'tsit, Miss Amiya, rest assured I have no energy to direct at Rhodes Island anymore.
 </t>
   </si>
   <si>
@@ -2080,11 +2080,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  However, no matter how strong a force may be, it can be limited by the circumstances it finds itself in. It’s largely a difference of degree.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  Even your men can’t project power with their hands tied. Even if you step onto the battlefield personally, the enemy still has something to use against you.
+    <t xml:space="preserve">[name="Kal'tsit"]  However, no matter how strong a force may be, it can be limited by the circumstances it finds itself in. It's largely a difference of degree.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Even your men can't project power with their hands tied. Even if you step onto the battlefield personally, the enemy still has something to use against you.
 </t>
   </si>
   <si>
@@ -2092,7 +2092,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  This wasn’t a slave market or some noble bacchanal. It was an event for those who represent the many movers and shakers of our world.
+    <t xml:space="preserve">[name="Kal'tsit"]  This wasn't a slave market or some noble bacchanal. It was an event for those who represent the many movers and shakers of our world.
 </t>
   </si>
   <si>
@@ -2104,7 +2104,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  I’m sure you can guess what happened next, Mr. Wei. Many young people proved their value that night, with the ideas and theories that they espoused—
+    <t xml:space="preserve">[name="Kal'tsit"]  I'm sure you can guess what happened next, Mr. Wei. Many young people proved their value that night, with the ideas and theories that they espoused—
 </t>
   </si>
   <si>
@@ -2116,7 +2116,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  Kashchey won’t tip his hand in exchange for assistance, and neither will Talulah. I’m sure you know their relationship much better than we do, Mr. Wei.
+    <t xml:space="preserve">[name="Kal'tsit"]  Kashchey won't tip his hand in exchange for assistance, and neither will Talulah. I'm sure you know their relationship much better than we do, Mr. Wei.
 </t>
   </si>
   <si>
@@ -2132,7 +2132,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Wei Yenwu"]  Your observations confirm my suspicions, Dr. Kal'tsit. Talulah is Kashchey’s successor.
+    <t xml:space="preserve">[name="Wei Yenwu"]  Your observations confirm my suspicions, Dr. Kal'tsit. Talulah is Kashchey's successor.
 </t>
   </si>
   <si>
@@ -2140,7 +2140,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  The Duke of Kashchey knows what you have, and what you’re capable of. Talulah may as well.
+    <t xml:space="preserve">[name="Kal'tsit"]  The Duke of Kashchey knows what you have, and what you're capable of. Talulah may as well.
 </t>
   </si>
   <si>
@@ -2152,7 +2152,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  By now, the Rhodes Island landship has left Lungmen’s port. What we do from here on has nothing to do with Lungmen.
+    <t xml:space="preserve">[name="Kal'tsit"]  By now, the Rhodes Island landship has left Lungmen's port. What we do from here on has nothing to do with Lungmen.
 </t>
   </si>
   <si>
@@ -2164,7 +2164,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]  Mr. Wei. We... won’t concern ourselves with the future of Lungmen, or your personal business.
+    <t xml:space="preserve">[name="Amiya"]  Mr. Wei. We... won't concern ourselves with the future of Lungmen, or your personal business.
 </t>
   </si>
   <si>
@@ -2172,19 +2172,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]  If you’ll permit us to act, and if you can promise you won’t act against us in any way——
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Amiya"]  Then the battle to come is our battle, Rhodes Island’s battle.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Wei Yenwu"]  I won’t rely on the Infected. I don’t trust the Infected. The only difference between you and Reunion is that you haven’t turned against Lungmen... yet. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Wei Yenwu"]  What was Reunion like before? Even if we don’t remember, someone does. They weren’t anything like this.
+    <t xml:space="preserve">[name="Amiya"]  If you'll permit us to act, and if you can promise you won't act against us in any way——
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Then the battle to come is our battle, Rhodes Island's battle.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  I won't rely on the Infected. I don't trust the Infected. The only difference between you and Reunion is that you haven't turned against Lungmen... yet. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  What was Reunion like before? Even if we don't remember, someone does. They weren't anything like this.
 </t>
   </si>
   <si>
@@ -2200,7 +2200,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Wei Yenwu"]  What’s more, I doubt you have the strength to deal with Kashchey’s successor.
+    <t xml:space="preserve">[name="Wei Yenwu"]  What's more, I doubt you have the strength to deal with Kashchey's successor.
 </t>
   </si>
   <si>
@@ -2212,15 +2212,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Wei Yenwu"]  Don’t make blind conjectures.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  What you just told me, Mr. Wei, is revealing. You think you’re the only one who can handle this situation.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  It’s true that Lungmen has the raw power to do it, and you’ve also overcome the machinations of Ursus.
+    <t xml:space="preserve">[name="Wei Yenwu"]  Don't make blind conjectures.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  What you just told me, Mr. Wei, is revealing. You think you're the only one who can handle this situation.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  It's true that Lungmen has the raw power to do it, and you've also overcome the machinations of Ursus.
 </t>
   </si>
   <si>
@@ -2228,11 +2228,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  As Miss Fumizuki said, you feel you’ve betrayed your principles, and you hope to end it all with your death.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Wei Yenwu"]  I’ve made so many mistakes. My death can’t pay for them all. I don’t even know who I’d be paying.
+    <t xml:space="preserve">[name="Kal'tsit"]  As Miss Fumizuki said, you feel you've betrayed your principles, and you hope to end it all with your death.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  I've made so many mistakes. My death can't pay for them all. I don't even know who I'd be paying.
 </t>
   </si>
   <si>
@@ -2252,11 +2252,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Fumizuki"]  Dr. Kal’tsit?! What are you saying?!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  I meant what I said, Mr. Wei. I’m afraid your wife will suffer because of your actions. Even if you’re dead, she is your widow. She’ll still know everything you knew.
+    <t xml:space="preserve">[name="Fumizuki"]  Dr. Kal'tsit?! What are you saying?!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  I meant what I said, Mr. Wei. I'm afraid your wife will suffer because of your actions. Even if you're dead, she is your widow. She'll still know everything you knew.
 </t>
   </si>
   <si>
@@ -2264,15 +2264,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  I have a feeling that particular individual won’t be so magnanimous.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Fumizuki"]  That’s enough, Dr. Kal’tsit! You’re way out of line. I can’t...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Wei Yenwu"]  You’re saying that even if I do this, I still won’t be able to protect Fumizuki.
+    <t xml:space="preserve">[name="Kal'tsit"]  I have a feeling that particular individual won't be so magnanimous.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Fumizuki"]  That's enough, Dr. Kal'tsit! You're way out of line. I can't...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  You're saying that even if I do this, I still won't be able to protect Fumizuki.
 </t>
   </si>
   <si>
@@ -2308,7 +2308,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  We know what they want, and what they don’t.
+    <t xml:space="preserve">[name="Kal'tsit"]  We know what they want, and what they don't.
 </t>
   </si>
   <si>
@@ -2324,7 +2324,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Wei Yenwu"]  You’re not a charity. Attacking the core city is tantamount to throwing an egg at a boulder. It will be ruinously expensive, and may be utterly futile.
+    <t xml:space="preserve">[name="Wei Yenwu"]  You're not a charity. Attacking the core city is tantamount to throwing an egg at a boulder. It will be ruinously expensive, and may be utterly futile.
 </t>
   </si>
   <si>
@@ -2348,7 +2348,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]  We don’t need your money, Miss Fumizuki. Your kindness and your attitude toward the Infected are enough for us to execute this operation free of charge.
+    <t xml:space="preserve">[name="Amiya"]  We don't need your money, Miss Fumizuki. Your kindness and your attitude toward the Infected are enough for us to execute this operation free of charge.
 </t>
   </si>
   <si>
@@ -2368,7 +2368,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Wei Yenwu"]  I agree. Until the end of the Lungmen-Chernobog conflict, we, Lungmen, will not in any way interfere in Rhodes Island’s affairs.
+    <t xml:space="preserve">[name="Wei Yenwu"]  I agree. Until the end of the Lungmen-Chernobog conflict, we, Lungmen, will not in any way interfere in Rhodes Island's affairs.
 </t>
   </si>
   <si>
